--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -707,10 +719,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -754,28 +766,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -800,28 +812,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -938,10 +950,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -985,28 +997,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1031,28 +1043,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1412,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1459,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1505,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1602,10 +1614,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1649,28 +1661,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1695,28 +1707,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1804,10 +1816,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1851,28 +1863,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1897,28 +1909,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1977,10 +1989,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2024,28 +2036,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2070,28 +2082,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2150,10 +2162,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2197,28 +2209,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2243,28 +2255,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2352,10 +2364,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2399,28 +2411,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2445,28 +2457,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2583,10 +2595,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2630,28 +2642,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2676,28 +2688,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2872,10 +2884,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2919,28 +2931,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2965,28 +2977,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3074,10 +3086,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3121,28 +3133,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3167,28 +3179,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3276,10 +3288,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3323,28 +3335,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3369,28 +3381,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3478,10 +3490,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3525,28 +3537,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3571,28 +3583,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3651,10 +3663,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3698,28 +3710,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3744,28 +3756,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3882,10 +3894,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3929,28 +3941,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3975,28 +3987,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4084,10 +4096,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4131,28 +4143,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4177,28 +4189,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4286,10 +4298,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4333,28 +4345,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4379,28 +4391,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4488,10 +4500,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4535,28 +4547,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4581,28 +4593,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4661,10 +4673,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4708,28 +4720,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4754,28 +4766,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4863,10 +4875,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4910,28 +4922,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4956,28 +4968,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5036,10 +5048,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5083,28 +5095,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5129,28 +5141,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5209,10 +5221,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5256,28 +5268,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5302,28 +5314,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5411,10 +5423,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5458,28 +5470,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5504,28 +5516,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5584,10 +5596,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5631,28 +5643,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5677,28 +5689,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5757,10 +5769,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5804,28 +5816,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5850,28 +5862,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5959,10 +5971,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6006,28 +6018,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6052,28 +6064,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6161,10 +6173,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6208,28 +6220,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6254,28 +6266,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6392,10 +6404,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6439,28 +6451,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6485,28 +6497,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6565,10 +6577,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6612,28 +6624,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6658,28 +6670,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6767,10 +6779,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6814,28 +6826,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6860,28 +6872,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6969,10 +6981,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7016,28 +7028,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7062,28 +7074,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7142,10 +7154,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7189,28 +7201,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7235,28 +7247,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7344,10 +7356,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7391,28 +7403,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7437,28 +7449,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7604,10 +7616,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7651,28 +7663,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7697,28 +7709,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7777,10 +7789,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7824,28 +7836,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7870,28 +7882,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7950,10 +7962,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -7997,28 +8009,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8043,28 +8055,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8152,10 +8164,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8199,28 +8211,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8245,28 +8257,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8325,10 +8337,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8372,28 +8384,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8418,28 +8430,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8498,10 +8510,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8545,28 +8557,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8591,28 +8603,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8671,10 +8683,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8718,28 +8730,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8764,28 +8776,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8844,10 +8856,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8891,28 +8903,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8937,28 +8949,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9017,10 +9029,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9064,28 +9076,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9110,28 +9122,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9190,10 +9202,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9237,28 +9249,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9283,28 +9295,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9392,10 +9404,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9439,28 +9451,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9485,28 +9497,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9565,10 +9577,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9612,28 +9624,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9658,28 +9670,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9796,10 +9808,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9843,28 +9855,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9889,28 +9901,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9969,10 +9981,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10016,28 +10028,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10062,28 +10074,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10142,10 +10154,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10189,28 +10201,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10235,28 +10247,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10315,10 +10327,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10362,28 +10374,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10408,28 +10420,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10488,10 +10500,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10535,28 +10547,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10581,28 +10593,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10661,10 +10673,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10708,28 +10720,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10754,28 +10766,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10834,10 +10846,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10881,28 +10893,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="2">
+      <c r="A373" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="2">
+      <c r="C373" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10927,28 +10939,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="2">
+      <c r="C375" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="2">
+      <c r="D375" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="2">
+      <c r="I375" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11007,10 +11019,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="2" t="s">
+      <c r="J377" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11054,28 +11066,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="2">
+      <c r="A379" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="2">
+      <c r="C379" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11100,28 +11112,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="2">
+      <c r="C381" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="2">
+      <c r="D381" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="2">
+      <c r="I381" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11209,10 +11221,10 @@
       <c r="I384">
         <f>((C384-C383)^2+(D384- D383)^2)^.5</f>
       </c>
-      <c r="J384" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K384" s="2" t="s">
+      <c r="J384" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K384" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L384" t="n">
@@ -11256,28 +11268,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="s" s="2">
+      <c r="A386" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B386" t="s" s="2">
+      <c r="B386" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C386" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D386" t="s" s="2">
+      <c r="C386" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D386" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E386" t="s" s="2">
+      <c r="E386" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F386" t="s" s="2">
+      <c r="F386" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G386" t="s" s="2">
+      <c r="G386" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H386" t="s" s="2">
+      <c r="H386" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11302,28 +11314,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C388" t="s" s="2">
+      <c r="C388" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D388" t="s" s="2">
+      <c r="D388" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I388" t="s" s="2">
+      <c r="I388" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11382,10 +11394,10 @@
       <c r="I390">
         <f>((C390-C389)^2+(D390- D389)^2)^.5</f>
       </c>
-      <c r="J390" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K390" s="2" t="s">
+      <c r="J390" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K390" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L390" t="n">
@@ -11429,28 +11441,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="s" s="2">
+      <c r="A392" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B392" t="s" s="2">
+      <c r="B392" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C392" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D392" t="s" s="2">
+      <c r="C392" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D392" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E392" t="s" s="2">
+      <c r="E392" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F392" t="s" s="2">
+      <c r="F392" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G392" t="s" s="2">
+      <c r="G392" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H392" t="s" s="2">
+      <c r="H392" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11475,28 +11487,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C394" t="s" s="2">
+      <c r="C394" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D394" t="s" s="2">
+      <c r="D394" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I394" t="s" s="2">
+      <c r="I394" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11555,10 +11567,10 @@
       <c r="I396">
         <f>((C396-C395)^2+(D396- D395)^2)^.5</f>
       </c>
-      <c r="J396" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K396" s="2" t="s">
+      <c r="J396" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K396" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L396" t="n">
